--- a/data/trans_dic/P62A$invalidez-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P62A$invalidez-Edad-trans_dic.xlsx
@@ -745,7 +745,7 @@
       <c r="J6" s="5" t="inlineStr"/>
       <c r="K6" s="5" t="inlineStr"/>
       <c r="L6" s="5" t="n">
-        <v>0.3565126671406708</v>
+        <v>0.3178496967901242</v>
       </c>
       <c r="M6" s="5" t="inlineStr"/>
       <c r="N6" s="5" t="n">
@@ -785,7 +785,7 @@
         <v>0.1482740293060276</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.1113088241160982</v>
+        <v>0.1113088241160983</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.3840041905562169</v>
@@ -797,7 +797,7 @@
         <v>0.2524205290651551</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.1281813936604062</v>
+        <v>0.1281813936604061</v>
       </c>
     </row>
     <row r="8">
@@ -808,22 +808,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1690194084602556</v>
+        <v>0.1752251317520345</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3171463050162748</v>
+        <v>0.3412644534533474</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1362461687598994</v>
+        <v>0.1337351700962259</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.07377377834610382</v>
+        <v>0.07300084185616498</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.07173042178947704</v>
+        <v>0.04472305434622628</v>
       </c>
       <c r="I8" s="5" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1598946716434023</v>
+        <v>0.1537039145599246</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2187538700425667</v>
+        <v>0.220565152477751</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.106813857803421</v>
+        <v>0.1073576104571824</v>
       </c>
       <c r="N8" s="5" t="n">
         <v>0</v>
@@ -855,37 +855,37 @@
         <v>1</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8145592839660056</v>
+        <v>0.8187183618920043</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6398803720232199</v>
+        <v>0.6211340667543642</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6381304564108436</v>
+        <v>0.6687328203084915</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.673669763878614</v>
+        <v>0.5943272931374989</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4240308390220418</v>
+        <v>0.4358939903860742</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4377746087123359</v>
+        <v>0.4196077778838178</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4504934109084293</v>
+        <v>0.4978954725107482</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6264721949732242</v>
+        <v>0.6572030983650857</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5317259281787329</v>
+        <v>0.5091370109639738</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4342050510352648</v>
+        <v>0.4312947871201285</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3901928577732499</v>
+        <v>0.3941229903464589</v>
       </c>
     </row>
     <row r="10">
@@ -944,40 +944,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.390763161782729</v>
+        <v>0.3769806853614739</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3971137521089507</v>
+        <v>0.3986139822652202</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3350907039778584</v>
+        <v>0.3438074449709679</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3110306888404727</v>
+        <v>0.3017240147608262</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3022443764976138</v>
+        <v>0.3106529450512816</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1178597085724365</v>
+        <v>0.1033547671176424</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06677670236430945</v>
+        <v>0.05243304161011666</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.407400380968745</v>
+        <v>0.4080786175766073</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.3890418729465009</v>
+        <v>0.3910038657025184</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2618189759893472</v>
+        <v>0.263640254131286</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05988381947413424</v>
+        <v>0.05709187247973772</v>
       </c>
     </row>
     <row r="12">
@@ -988,40 +988,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8226920274222285</v>
+        <v>0.7861387358831774</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7031875328581809</v>
+        <v>0.7047167257453141</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7003065713229331</v>
+        <v>0.7065723710155029</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3342519614348181</v>
+        <v>0.3229625145858327</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7475766954437765</v>
+        <v>0.7377206258539087</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6446583346574812</v>
+        <v>0.6470098743023954</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.427408732117185</v>
+        <v>0.4504692193268567</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2886993742323876</v>
+        <v>0.2793030203202151</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.7160647997704628</v>
+        <v>0.71905861666919</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6303804436556983</v>
+        <v>0.6255819066435921</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.5099955750499203</v>
+        <v>0.530069656270965</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2479859908264725</v>
+        <v>0.2491884950615751</v>
       </c>
     </row>
     <row r="13">
@@ -1080,38 +1080,38 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4089495672914374</v>
+        <v>0.3941675464741763</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6051405327073294</v>
+        <v>0.5990334155480928</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3159665908309315</v>
+        <v>0.3288764443897795</v>
       </c>
       <c r="F14" s="5" t="inlineStr"/>
       <c r="G14" s="5" t="n">
-        <v>0.1790847097134284</v>
+        <v>0.1754410685177766</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2260031009666106</v>
+        <v>0.2296448576541275</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1988844731421203</v>
+        <v>0.1969842925989131</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1407617855156165</v>
+        <v>0.1309831169152897</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3278802554976228</v>
+        <v>0.3275717483722828</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4747652417263806</v>
+        <v>0.4720679111269412</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3067350885759392</v>
+        <v>0.3051280644733115</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05523479297459266</v>
+        <v>0.05764744442067909</v>
       </c>
     </row>
     <row r="15">
@@ -1122,38 +1122,38 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7009737487137504</v>
+        <v>0.6928717076431827</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8161729434271704</v>
+        <v>0.8178549231020057</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5455384486287661</v>
+        <v>0.5492850007491736</v>
       </c>
       <c r="F15" s="5" t="inlineStr"/>
       <c r="G15" s="5" t="n">
-        <v>0.4749959420312326</v>
+        <v>0.4539067399439758</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4967559108399166</v>
+        <v>0.4875078490086147</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4953441971115811</v>
+        <v>0.4822518208523915</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3360080164342711</v>
+        <v>0.3312029105392432</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5340677239912774</v>
+        <v>0.5420055810972789</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6525560324308943</v>
+        <v>0.6630633536133855</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4827278832638127</v>
+        <v>0.4896375419535285</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1521025413575921</v>
+        <v>0.1522304421541067</v>
       </c>
     </row>
     <row r="16">
@@ -1177,7 +1177,7 @@
         <v>0.1554824419425428</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.03022174881723437</v>
+        <v>0.03022174881723436</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1723855489077063</v>
@@ -1212,40 +1212,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1133771599369714</v>
+        <v>0.1113593669068067</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2008189935899171</v>
+        <v>0.1992119947323403</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1078028157215786</v>
+        <v>0.106241355349942</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01041093638756224</v>
+        <v>0.01312075303540398</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.09781766955618809</v>
+        <v>0.09383385511435463</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1725832176104419</v>
+        <v>0.1752295668879041</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1246192739543218</v>
+        <v>0.1198792614358749</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2532072879875101</v>
+        <v>0.2589919974360049</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1263591116586162</v>
+        <v>0.1241462108035753</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2101390210445722</v>
+        <v>0.2098246650639264</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1277852305386037</v>
+        <v>0.12136227145497</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1152302519179378</v>
+        <v>0.1114986293937621</v>
       </c>
     </row>
     <row r="18">
@@ -1256,40 +1256,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2213255049825178</v>
+        <v>0.2207063796292309</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3476397098281988</v>
+        <v>0.3438674474828732</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2142144346079819</v>
+        <v>0.211762979672127</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06506673559239978</v>
+        <v>0.06295564300336667</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2724716467914513</v>
+        <v>0.2723110344402415</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3665004145851777</v>
+        <v>0.3605954485528362</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2782266896225131</v>
+        <v>0.2666634421630407</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.390155861624028</v>
+        <v>0.3930537016201841</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2218538491685944</v>
+        <v>0.2113796205938228</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3196571330352728</v>
+        <v>0.3236461851233802</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2163680637849787</v>
+        <v>0.2125077750293364</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1829925913878686</v>
+        <v>0.1805369412353216</v>
       </c>
     </row>
     <row r="19">
@@ -1313,7 +1313,7 @@
         <v>0.003276877581802337</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.007871890266066892</v>
+        <v>0.007871890266066895</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.02788633467255452</v>
@@ -1351,37 +1351,37 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.003616890150329228</v>
+        <v>0.00357644362923614</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.002662978344118141</v>
+        <v>0.002835705710993605</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01024472173268971</v>
+        <v>0.01043349233144046</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.00440969130910151</v>
+        <v>0.004382054130731637</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.004662601011347708</v>
+        <v>0.004609843497740516</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1768376348458655</v>
+        <v>0.1757367334248918</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.005620092392888642</v>
+        <v>0.004754305196591185</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.005846383594435981</v>
+        <v>0.005826508961994275</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.003441359490641276</v>
+        <v>0.003569199147037545</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.07820165411320056</v>
+        <v>0.08045062335623841</v>
       </c>
     </row>
     <row r="21">
@@ -1392,40 +1392,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.01803005502062882</v>
+        <v>0.01645273551839433</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.04632731916920461</v>
+        <v>0.03736818704900254</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.01986657869579599</v>
+        <v>0.01648939408404394</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.01841152480577715</v>
+        <v>0.01952182158776179</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.05862557547665478</v>
+        <v>0.06728333331825305</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.04128564893883827</v>
+        <v>0.0367567652942989</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.04079097814629265</v>
+        <v>0.04154100226379112</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2533746013405386</v>
+        <v>0.2519539290562821</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.02755934444520629</v>
+        <v>0.0265459313093498</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.02926667604205847</v>
+        <v>0.03063678374681398</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.02150257396746899</v>
+        <v>0.02069517662432559</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1134363895936625</v>
+        <v>0.1139510775511301</v>
       </c>
     </row>
     <row r="22">
@@ -1492,28 +1492,28 @@
       </c>
       <c r="F23" s="5" t="inlineStr"/>
       <c r="G23" s="5" t="n">
-        <v>0.004270602544097769</v>
+        <v>0.0042570780019393</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.01103211385227993</v>
+        <v>0.01096525253572444</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.004216451385178658</v>
+        <v>0.004226892236196061</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.5413299327857293</v>
+        <v>0.5419294787059875</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.002304640829919013</v>
+        <v>0</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.00614674319473105</v>
+        <v>0.007781430465135578</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.00394714486106972</v>
+        <v>0.003302108369689267</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2986094776525398</v>
+        <v>0.2980468773867598</v>
       </c>
     </row>
     <row r="24">
@@ -1525,35 +1525,35 @@
       </c>
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="n">
-        <v>0.01689813842943788</v>
+        <v>0.02117387034706504</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.0218865113092116</v>
+        <v>0.0252847073690388</v>
       </c>
       <c r="F24" s="5" t="inlineStr"/>
       <c r="G24" s="5" t="n">
-        <v>0.03935486707903402</v>
+        <v>0.0358958048948722</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.05175815600809849</v>
+        <v>0.05067420362620537</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.03625143680540457</v>
+        <v>0.03626232376229131</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.6242663919857632</v>
+        <v>0.6234770002295881</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.01957358506101434</v>
+        <v>0.01952617172390843</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.02986702002492249</v>
+        <v>0.02930524849541022</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.02320322654543854</v>
+        <v>0.02445099891482764</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.357967629724531</v>
+        <v>0.3570280376794669</v>
       </c>
     </row>
     <row r="25">
@@ -1577,7 +1577,7 @@
         <v>0.09798565194205118</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.01331251390920673</v>
+        <v>0.01331251390920672</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.08229793987075504</v>
@@ -1601,7 +1601,7 @@
         <v>0.08662244059720534</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.1923660332030919</v>
+        <v>0.1923660332030918</v>
       </c>
     </row>
     <row r="26">
@@ -1612,40 +1612,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.07853439492203861</v>
+        <v>0.07717931018446877</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1408017289999829</v>
+        <v>0.1390538884624981</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.07924797404986965</v>
+        <v>0.07892967107060074</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.006928395101279921</v>
+        <v>0.007501934307893181</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.06141543492966444</v>
+        <v>0.06173126755344598</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.08282129013605381</v>
+        <v>0.0828222943730213</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.05400155661627228</v>
+        <v>0.0546778712543319</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.3611902687530758</v>
+        <v>0.3627717245537423</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.07606866298187306</v>
+        <v>0.07595453400478651</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1203935877595559</v>
+        <v>0.1193409914167878</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.07314175485620428</v>
+        <v>0.0738976741931181</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1776124705650817</v>
+        <v>0.1781974152921591</v>
       </c>
     </row>
     <row r="27">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1203262674879033</v>
+        <v>0.1204109775294884</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1908579410315716</v>
+        <v>0.1908580419640886</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1197906245593155</v>
+        <v>0.1199222278753561</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.02180632796378092</v>
+        <v>0.02227525554702169</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1081631461637326</v>
+        <v>0.106384347923355</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1290909552259382</v>
+        <v>0.1313796266793991</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.09382418150268458</v>
+        <v>0.09370840149034666</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.4125137181140916</v>
+        <v>0.4159522682061109</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1074210541607521</v>
+        <v>0.1071782522606371</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1549766888935842</v>
+        <v>0.1564107801828016</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1026365027858154</v>
+        <v>0.102803927804984</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2068893189570536</v>
+        <v>0.2084555478946757</v>
       </c>
     </row>
     <row r="28">
@@ -2000,7 +2000,7 @@
       <c r="J7" s="6" t="inlineStr"/>
       <c r="K7" s="6" t="inlineStr"/>
       <c r="L7" s="6" t="n">
-        <v>4851</v>
+        <v>4325</v>
       </c>
       <c r="M7" s="6" t="inlineStr"/>
       <c r="N7" s="6" t="n">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>883</v>
+        <v>916</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5312</v>
+        <v>5716</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1967</v>
+        <v>1931</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1746</v>
+        <v>1088</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>2559</v>
+        <v>2460</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>8987</v>
+        <v>9062</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>2915</v>
+        <v>2930</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0</v>
@@ -2154,37 +2154,37 @@
         <v>5226</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>13644</v>
+        <v>13714</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>9240</v>
+        <v>8969</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>5336</v>
+        <v>5592</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>7262</v>
+        <v>6407</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>10319</v>
+        <v>10607</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>5625</v>
+        <v>5392</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>5922</v>
+        <v>6545</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>10027</v>
+        <v>10519</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>21845</v>
+        <v>20917</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>11849</v>
+        <v>11770</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>8392</v>
+        <v>8477</v>
       </c>
     </row>
     <row r="12">
@@ -2287,40 +2287,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>9796</v>
+        <v>9451</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>18554</v>
+        <v>18624</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>9894</v>
+        <v>10151</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>5999</v>
+        <v>5819</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>11989</v>
+        <v>12323</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>3376</v>
+        <v>2961</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1865</v>
+        <v>1465</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>18071</v>
+        <v>18101</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>33609</v>
+        <v>33779</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>15231</v>
+        <v>15336</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>2920</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="15">
@@ -2331,40 +2331,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>20624</v>
+        <v>19708</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>32855</v>
+        <v>32926</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>20677</v>
+        <v>20862</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>6964</v>
+        <v>6729</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>14419</v>
+        <v>14228</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>25572</v>
+        <v>25665</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>12244</v>
+        <v>12905</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>8064</v>
+        <v>7801</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>31762</v>
+        <v>31895</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>54459</v>
+        <v>54044</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>29667</v>
+        <v>30835</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>12094</v>
+        <v>12152</v>
       </c>
     </row>
     <row r="16">
@@ -2467,38 +2467,38 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>18727</v>
+        <v>18051</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>45886</v>
+        <v>45423</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>24904</v>
+        <v>25921</v>
       </c>
       <c r="F18" s="6" t="inlineStr"/>
       <c r="G18" s="6" t="n">
-        <v>7353</v>
+        <v>7204</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>12348</v>
+        <v>12547</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>9415</v>
+        <v>9325</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>6295</v>
+        <v>5858</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>28478</v>
+        <v>28451</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>61939</v>
+        <v>61587</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>38697</v>
+        <v>38494</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>5824</v>
+        <v>6078</v>
       </c>
     </row>
     <row r="19">
@@ -2509,38 +2509,38 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>32100</v>
+        <v>31729</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>61888</v>
+        <v>62015</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>42998</v>
+        <v>43293</v>
       </c>
       <c r="F19" s="6" t="inlineStr"/>
       <c r="G19" s="6" t="n">
-        <v>19504</v>
+        <v>18638</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>27140</v>
+        <v>26635</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>23450</v>
+        <v>22830</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>15027</v>
+        <v>14812</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>46386</v>
+        <v>47076</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>85134</v>
+        <v>86505</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>60900</v>
+        <v>61771</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>16037</v>
+        <v>16051</v>
       </c>
     </row>
     <row r="20">
@@ -2643,40 +2643,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>19139</v>
+        <v>18798</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>34827</v>
+        <v>34549</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>21593</v>
+        <v>21280</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1869</v>
+        <v>2356</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>7818</v>
+        <v>7500</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>16526</v>
+        <v>16779</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>13832</v>
+        <v>13306</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>29725</v>
+        <v>30404</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>31430</v>
+        <v>30879</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>56565</v>
+        <v>56480</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>39779</v>
+        <v>37780</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>34214</v>
+        <v>33106</v>
       </c>
     </row>
     <row r="23">
@@ -2687,40 +2687,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>37361</v>
+        <v>37257</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>60290</v>
+        <v>59636</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>42908</v>
+        <v>42417</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>11681</v>
+        <v>11302</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>21778</v>
+        <v>21765</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>35094</v>
+        <v>34528</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>30881</v>
+        <v>29598</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>45801</v>
+        <v>46141</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>55182</v>
+        <v>52577</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>86045</v>
+        <v>87119</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>67355</v>
+        <v>66153</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>54334</v>
+        <v>53605</v>
       </c>
     </row>
     <row r="24">
@@ -2826,37 +2826,37 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1106</v>
+        <v>1093</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>883</v>
+        <v>940</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1811</v>
+        <v>1844</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1091</v>
+        <v>1079</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>44010</v>
+        <v>43736</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>2599</v>
+        <v>2198</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>3106</v>
+        <v>3095</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>1918</v>
+        <v>1989</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>45393</v>
+        <v>46698</v>
       </c>
     </row>
     <row r="27">
@@ -2867,40 +2867,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5151</v>
+        <v>4700</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>14161</v>
+        <v>11422</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>6422</v>
+        <v>5330</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>6105</v>
+        <v>6473</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>10361</v>
+        <v>11892</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>9313</v>
+        <v>8292</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>9547</v>
+        <v>9723</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>63059</v>
+        <v>62705</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>12744</v>
+        <v>12275</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>15548</v>
+        <v>16276</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>11984</v>
+        <v>11534</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>65845</v>
+        <v>66144</v>
       </c>
     </row>
     <row r="28">
@@ -3011,28 +3011,28 @@
       </c>
       <c r="F30" s="6" t="inlineStr"/>
       <c r="G30" s="6" t="n">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>3270</v>
+        <v>3251</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1233</v>
+        <v>1237</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>188719</v>
+        <v>188928</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1046</v>
+        <v>0</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>3351</v>
+        <v>4243</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>2143</v>
+        <v>1793</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>185226</v>
+        <v>184877</v>
       </c>
     </row>
     <row r="31">
@@ -3044,35 +3044,35 @@
       </c>
       <c r="C31" s="6" t="inlineStr"/>
       <c r="D31" s="6" t="n">
-        <v>4204</v>
+        <v>5268</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>5480</v>
+        <v>6331</v>
       </c>
       <c r="F31" s="6" t="inlineStr"/>
       <c r="G31" s="6" t="n">
-        <v>9733</v>
+        <v>8877</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>15343</v>
+        <v>15022</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>10605</v>
+        <v>10608</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>217632</v>
+        <v>217357</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>8880</v>
+        <v>8859</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>16284</v>
+        <v>15978</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>12598</v>
+        <v>13275</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>222046</v>
+        <v>221463</v>
       </c>
     </row>
     <row r="32">
@@ -3175,40 +3175,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>57949</v>
+        <v>56949</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>122655</v>
+        <v>121132</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>71421</v>
+        <v>71134</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>6059</v>
+        <v>6560</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>35381</v>
+        <v>35563</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>61792</v>
+        <v>61793</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>39801</v>
+        <v>40300</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>290342</v>
+        <v>291613</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>99951</v>
+        <v>99801</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>194701</v>
+        <v>192998</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>119826</v>
+        <v>121065</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>298087</v>
+        <v>299068</v>
       </c>
     </row>
     <row r="35">
@@ -3219,40 +3219,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>88786</v>
+        <v>88848</v>
       </c>
       <c r="D35" s="6" t="n">
         <v>166259</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>107959</v>
+        <v>108078</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>19069</v>
+        <v>19479</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>62311</v>
+        <v>61287</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>96313</v>
+        <v>98021</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>69152</v>
+        <v>69067</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>331598</v>
+        <v>334362</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>141147</v>
+        <v>140828</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>250629</v>
+        <v>252948</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>168147</v>
+        <v>168421</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>347222</v>
+        <v>349851</v>
       </c>
     </row>
     <row r="36">
